--- a/class01/ex.Hash.company.xlsx
+++ b/class01/ex.Hash.company.xlsx
@@ -372,7 +372,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>772580</t>
+          <t>1543425</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -384,7 +384,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>774293</t>
+          <t>1546848</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -396,7 +396,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>776006</t>
+          <t>1550270</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -408,7 +408,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>777719</t>
+          <t>1553693</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -420,7 +420,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>779432</t>
+          <t>1557116</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -432,7 +432,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>781146</t>
+          <t>1560538</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -444,7 +444,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>784570</t>
+          <t>1567380</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -456,7 +456,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>796562</t>
+          <t>1591335</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>801700</t>
+          <t>1601602</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -480,7 +480,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>810266</t>
+          <t>1618714</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -492,7 +492,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>820545</t>
+          <t>1639249</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -504,7 +504,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>822257</t>
+          <t>1642669</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -516,7 +516,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>823970</t>
+          <t>1646092</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -528,7 +528,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>829110</t>
+          <t>1656359</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -540,7 +540,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>830823</t>
+          <t>1659782</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -552,7 +552,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>835961</t>
+          <t>1670046</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -564,7 +564,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>837674</t>
+          <t>1673469</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -576,7 +576,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>841101</t>
+          <t>1680315</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -588,7 +588,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>842814</t>
+          <t>1683738</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -600,7 +600,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>846241</t>
+          <t>1690583</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -612,7 +612,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>847952</t>
+          <t>1694002</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -624,7 +624,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>854805</t>
+          <t>1707692</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
